--- a/Input Files/Mesopolis_pop_at_node.xlsx
+++ b/Input Files/Mesopolis_pop_at_node.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squar\Documents\hydraulic_ABM\Input Files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bvizank\Documents\hydraulic_abm\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED28A0D-F8A6-4408-A7DE-431D6435E81D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2715" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="2715" windowWidth="24240" windowHeight="13140"/>
   </bookViews>
   <sheets>
     <sheet name="nodes" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">nodes!$A$1:$E$707</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1417" uniqueCount="718">
   <si>
     <t>ELEV</t>
   </si>
@@ -2187,12 +2186,15 @@
   </si>
   <si>
     <t>TN1276</t>
+  </si>
+  <si>
+    <t>cafe</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3026,11 +3028,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E707"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="D352" sqref="D352:D596"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3052,7 +3055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -3069,7 +3072,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -3086,7 +3089,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -3103,7 +3106,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -3120,7 +3123,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3137,7 +3140,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -3154,7 +3157,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3171,7 +3174,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3188,7 +3191,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -3205,7 +3208,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -3222,7 +3225,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -3239,7 +3242,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -3256,7 +3259,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -3273,7 +3276,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -3290,7 +3293,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -3307,7 +3310,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -3324,7 +3327,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -3341,7 +3344,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -3358,7 +3361,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -3392,7 +3395,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -3409,7 +3412,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -3426,7 +3429,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -3443,7 +3446,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -3460,7 +3463,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -3477,7 +3480,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -3494,7 +3497,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3528,7 +3531,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -3545,7 +3548,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -3562,7 +3565,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -3579,7 +3582,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -3596,7 +3599,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -3613,7 +3616,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>48</v>
       </c>
@@ -3630,7 +3633,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
@@ -3664,7 +3667,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -3681,7 +3684,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
@@ -3698,7 +3701,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -3715,7 +3718,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
@@ -3732,7 +3735,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -3749,7 +3752,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
@@ -3766,7 +3769,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>57</v>
       </c>
@@ -3783,7 +3786,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>58</v>
       </c>
@@ -3800,7 +3803,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>59</v>
       </c>
@@ -3817,7 +3820,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>60</v>
       </c>
@@ -3834,7 +3837,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>61</v>
       </c>
@@ -3851,7 +3854,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>62</v>
       </c>
@@ -3868,7 +3871,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>63</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -3902,7 +3905,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>65</v>
       </c>
@@ -3919,7 +3922,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>66</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>67</v>
       </c>
@@ -3953,7 +3956,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>68</v>
       </c>
@@ -3970,7 +3973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>69</v>
       </c>
@@ -3987,7 +3990,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>70</v>
       </c>
@@ -4004,7 +4007,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>71</v>
       </c>
@@ -4021,7 +4024,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>72</v>
       </c>
@@ -4038,7 +4041,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
@@ -4055,7 +4058,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -4072,7 +4075,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>75</v>
       </c>
@@ -4089,7 +4092,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>76</v>
       </c>
@@ -4106,7 +4109,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>77</v>
       </c>
@@ -4123,7 +4126,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>78</v>
       </c>
@@ -4140,7 +4143,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -4157,7 +4160,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>80</v>
       </c>
@@ -4174,7 +4177,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>81</v>
       </c>
@@ -4191,7 +4194,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>82</v>
       </c>
@@ -4208,7 +4211,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -4225,7 +4228,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -4242,7 +4245,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>85</v>
       </c>
@@ -4259,7 +4262,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>86</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>87</v>
       </c>
@@ -4293,7 +4296,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>88</v>
       </c>
@@ -4310,7 +4313,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>89</v>
       </c>
@@ -4327,7 +4330,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>90</v>
       </c>
@@ -4344,7 +4347,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>91</v>
       </c>
@@ -4361,7 +4364,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>92</v>
       </c>
@@ -4378,7 +4381,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>93</v>
       </c>
@@ -4395,7 +4398,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>94</v>
       </c>
@@ -4412,7 +4415,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>95</v>
       </c>
@@ -4429,7 +4432,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>96</v>
       </c>
@@ -4446,7 +4449,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -4463,7 +4466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>98</v>
       </c>
@@ -4480,7 +4483,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>99</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>100</v>
       </c>
@@ -4514,7 +4517,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>101</v>
       </c>
@@ -4531,7 +4534,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>102</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>103</v>
       </c>
@@ -4565,7 +4568,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>104</v>
       </c>
@@ -4582,7 +4585,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>105</v>
       </c>
@@ -4599,7 +4602,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>106</v>
       </c>
@@ -4616,7 +4619,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>107</v>
       </c>
@@ -4633,7 +4636,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>108</v>
       </c>
@@ -4650,7 +4653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>109</v>
       </c>
@@ -4667,7 +4670,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>110</v>
       </c>
@@ -4684,7 +4687,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>111</v>
       </c>
@@ -4701,7 +4704,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>112</v>
       </c>
@@ -4718,7 +4721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>113</v>
       </c>
@@ -4735,7 +4738,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -4752,7 +4755,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>115</v>
       </c>
@@ -4769,7 +4772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>116</v>
       </c>
@@ -4786,7 +4789,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>117</v>
       </c>
@@ -4803,7 +4806,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>118</v>
       </c>
@@ -4820,7 +4823,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>119</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>120</v>
       </c>
@@ -4854,7 +4857,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>121</v>
       </c>
@@ -4871,7 +4874,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>122</v>
       </c>
@@ -4888,7 +4891,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>123</v>
       </c>
@@ -4905,7 +4908,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>124</v>
       </c>
@@ -4922,7 +4925,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>125</v>
       </c>
@@ -4939,7 +4942,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>126</v>
       </c>
@@ -4956,7 +4959,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>127</v>
       </c>
@@ -4973,7 +4976,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>128</v>
       </c>
@@ -4990,7 +4993,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>129</v>
       </c>
@@ -5007,7 +5010,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>130</v>
       </c>
@@ -5024,7 +5027,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>131</v>
       </c>
@@ -5041,7 +5044,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>132</v>
       </c>
@@ -5058,7 +5061,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>133</v>
       </c>
@@ -5075,7 +5078,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>134</v>
       </c>
@@ -5092,7 +5095,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>135</v>
       </c>
@@ -5109,7 +5112,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>136</v>
       </c>
@@ -5126,7 +5129,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>137</v>
       </c>
@@ -5143,7 +5146,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>138</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>139</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>140</v>
       </c>
@@ -5194,7 +5197,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>141</v>
       </c>
@@ -5211,7 +5214,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>142</v>
       </c>
@@ -5228,7 +5231,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>143</v>
       </c>
@@ -5245,7 +5248,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>144</v>
       </c>
@@ -5262,7 +5265,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>145</v>
       </c>
@@ -5279,7 +5282,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>146</v>
       </c>
@@ -5296,7 +5299,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>147</v>
       </c>
@@ -5313,7 +5316,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>148</v>
       </c>
@@ -5330,7 +5333,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>149</v>
       </c>
@@ -5347,7 +5350,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>150</v>
       </c>
@@ -5364,7 +5367,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>151</v>
       </c>
@@ -5381,7 +5384,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>152</v>
       </c>
@@ -5398,7 +5401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>153</v>
       </c>
@@ -5415,7 +5418,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>154</v>
       </c>
@@ -5432,7 +5435,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>155</v>
       </c>
@@ -5449,7 +5452,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>156</v>
       </c>
@@ -5466,7 +5469,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>157</v>
       </c>
@@ -5483,7 +5486,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>158</v>
       </c>
@@ -5500,7 +5503,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>159</v>
       </c>
@@ -5517,7 +5520,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>160</v>
       </c>
@@ -5534,7 +5537,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -5551,7 +5554,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>162</v>
       </c>
@@ -5568,7 +5571,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>163</v>
       </c>
@@ -5585,7 +5588,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>164</v>
       </c>
@@ -5602,7 +5605,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>165</v>
       </c>
@@ -5619,7 +5622,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>166</v>
       </c>
@@ -5636,7 +5639,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>167</v>
       </c>
@@ -5653,7 +5656,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>168</v>
       </c>
@@ -5670,7 +5673,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>169</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>170</v>
       </c>
@@ -5704,7 +5707,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>171</v>
       </c>
@@ -5721,7 +5724,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>172</v>
       </c>
@@ -5738,7 +5741,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>173</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>174</v>
       </c>
@@ -5772,7 +5775,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>175</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>176</v>
       </c>
@@ -5806,7 +5809,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>177</v>
       </c>
@@ -5823,7 +5826,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>178</v>
       </c>
@@ -5840,7 +5843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>179</v>
       </c>
@@ -5857,7 +5860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>180</v>
       </c>
@@ -5874,7 +5877,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>181</v>
       </c>
@@ -5891,7 +5894,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>182</v>
       </c>
@@ -5908,7 +5911,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>183</v>
       </c>
@@ -5925,7 +5928,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>184</v>
       </c>
@@ -5942,7 +5945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>185</v>
       </c>
@@ -5959,7 +5962,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>186</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>187</v>
       </c>
@@ -5993,7 +5996,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>188</v>
       </c>
@@ -6010,7 +6013,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>189</v>
       </c>
@@ -6027,7 +6030,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>190</v>
       </c>
@@ -6044,7 +6047,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>191</v>
       </c>
@@ -6061,7 +6064,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>192</v>
       </c>
@@ -6078,7 +6081,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>193</v>
       </c>
@@ -6095,7 +6098,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>194</v>
       </c>
@@ -6112,7 +6115,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>195</v>
       </c>
@@ -6129,7 +6132,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>196</v>
       </c>
@@ -6146,7 +6149,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>197</v>
       </c>
@@ -6163,7 +6166,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>198</v>
       </c>
@@ -6180,7 +6183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>199</v>
       </c>
@@ -6197,7 +6200,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>200</v>
       </c>
@@ -6214,7 +6217,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>201</v>
       </c>
@@ -6231,7 +6234,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>202</v>
       </c>
@@ -6248,7 +6251,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>203</v>
       </c>
@@ -6265,7 +6268,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>204</v>
       </c>
@@ -6282,7 +6285,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>205</v>
       </c>
@@ -6299,7 +6302,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>206</v>
       </c>
@@ -6316,7 +6319,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>207</v>
       </c>
@@ -6333,7 +6336,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>208</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>209</v>
       </c>
@@ -6367,7 +6370,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>210</v>
       </c>
@@ -6384,7 +6387,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>211</v>
       </c>
@@ -6401,7 +6404,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>212</v>
       </c>
@@ -6418,7 +6421,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>213</v>
       </c>
@@ -6435,7 +6438,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>214</v>
       </c>
@@ -6452,7 +6455,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>215</v>
       </c>
@@ -6469,7 +6472,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>216</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>217</v>
       </c>
@@ -6503,7 +6506,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>218</v>
       </c>
@@ -6520,7 +6523,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>219</v>
       </c>
@@ -6537,7 +6540,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>220</v>
       </c>
@@ -6554,7 +6557,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>221</v>
       </c>
@@ -6571,7 +6574,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>222</v>
       </c>
@@ -6588,7 +6591,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>223</v>
       </c>
@@ -6605,7 +6608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>224</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>225</v>
       </c>
@@ -6639,7 +6642,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>226</v>
       </c>
@@ -6656,7 +6659,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>227</v>
       </c>
@@ -6673,7 +6676,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>228</v>
       </c>
@@ -6690,7 +6693,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>229</v>
       </c>
@@ -6707,7 +6710,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>230</v>
       </c>
@@ -6724,7 +6727,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>231</v>
       </c>
@@ -6741,7 +6744,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>232</v>
       </c>
@@ -6758,7 +6761,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>233</v>
       </c>
@@ -6775,7 +6778,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>234</v>
       </c>
@@ -6792,7 +6795,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>235</v>
       </c>
@@ -6809,7 +6812,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>236</v>
       </c>
@@ -6826,7 +6829,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>237</v>
       </c>
@@ -6843,7 +6846,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>238</v>
       </c>
@@ -6860,7 +6863,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>239</v>
       </c>
@@ -6877,7 +6880,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>240</v>
       </c>
@@ -6894,7 +6897,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>241</v>
       </c>
@@ -6911,7 +6914,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>242</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>243</v>
       </c>
@@ -6945,7 +6948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>244</v>
       </c>
@@ -6962,7 +6965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>245</v>
       </c>
@@ -6979,7 +6982,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>246</v>
       </c>
@@ -6996,7 +6999,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>247</v>
       </c>
@@ -7013,7 +7016,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>248</v>
       </c>
@@ -7030,7 +7033,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>249</v>
       </c>
@@ -7047,7 +7050,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>250</v>
       </c>
@@ -7064,7 +7067,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>251</v>
       </c>
@@ -7081,7 +7084,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>252</v>
       </c>
@@ -7098,7 +7101,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>253</v>
       </c>
@@ -7115,7 +7118,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>254</v>
       </c>
@@ -7132,7 +7135,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>255</v>
       </c>
@@ -7149,7 +7152,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>256</v>
       </c>
@@ -7166,7 +7169,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>257</v>
       </c>
@@ -7183,7 +7186,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>258</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>259</v>
       </c>
@@ -7217,7 +7220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>260</v>
       </c>
@@ -7234,7 +7237,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>261</v>
       </c>
@@ -7251,7 +7254,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>262</v>
       </c>
@@ -7268,7 +7271,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>263</v>
       </c>
@@ -7285,7 +7288,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>264</v>
       </c>
@@ -7302,7 +7305,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>265</v>
       </c>
@@ -7319,7 +7322,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>266</v>
       </c>
@@ -7336,7 +7339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>267</v>
       </c>
@@ -7353,7 +7356,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>268</v>
       </c>
@@ -7370,7 +7373,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>269</v>
       </c>
@@ -7387,7 +7390,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>270</v>
       </c>
@@ -7404,7 +7407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>271</v>
       </c>
@@ -7421,7 +7424,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>272</v>
       </c>
@@ -7438,7 +7441,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>273</v>
       </c>
@@ -7455,7 +7458,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>274</v>
       </c>
@@ -7472,7 +7475,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>275</v>
       </c>
@@ -7489,7 +7492,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>276</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>277</v>
       </c>
@@ -7523,7 +7526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>278</v>
       </c>
@@ -7540,7 +7543,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>279</v>
       </c>
@@ -7557,7 +7560,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>280</v>
       </c>
@@ -7574,7 +7577,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>281</v>
       </c>
@@ -7591,7 +7594,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>282</v>
       </c>
@@ -7608,7 +7611,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>283</v>
       </c>
@@ -7625,7 +7628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>284</v>
       </c>
@@ -7642,7 +7645,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>285</v>
       </c>
@@ -7659,7 +7662,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>286</v>
       </c>
@@ -7676,7 +7679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>287</v>
       </c>
@@ -7693,7 +7696,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>288</v>
       </c>
@@ -7710,7 +7713,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>289</v>
       </c>
@@ -7727,7 +7730,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>290</v>
       </c>
@@ -7744,7 +7747,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>291</v>
       </c>
@@ -7761,7 +7764,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>292</v>
       </c>
@@ -7778,7 +7781,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>293</v>
       </c>
@@ -7795,7 +7798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>294</v>
       </c>
@@ -7812,7 +7815,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>295</v>
       </c>
@@ -7829,7 +7832,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>296</v>
       </c>
@@ -7846,7 +7849,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>297</v>
       </c>
@@ -7863,7 +7866,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>298</v>
       </c>
@@ -7880,7 +7883,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>299</v>
       </c>
@@ -7897,7 +7900,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>300</v>
       </c>
@@ -7914,7 +7917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>301</v>
       </c>
@@ -7931,7 +7934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>302</v>
       </c>
@@ -7948,7 +7951,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>303</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>304</v>
       </c>
@@ -7982,7 +7985,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>305</v>
       </c>
@@ -7999,7 +8002,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>306</v>
       </c>
@@ -8016,7 +8019,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>307</v>
       </c>
@@ -8033,7 +8036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>308</v>
       </c>
@@ -8050,7 +8053,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>309</v>
       </c>
@@ -8067,7 +8070,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>310</v>
       </c>
@@ -8084,7 +8087,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>311</v>
       </c>
@@ -8101,7 +8104,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>312</v>
       </c>
@@ -8118,7 +8121,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>313</v>
       </c>
@@ -8135,7 +8138,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>314</v>
       </c>
@@ -8152,7 +8155,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>315</v>
       </c>
@@ -8169,7 +8172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>316</v>
       </c>
@@ -8186,7 +8189,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>317</v>
       </c>
@@ -8203,7 +8206,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>318</v>
       </c>
@@ -8220,7 +8223,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>319</v>
       </c>
@@ -8237,7 +8240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>320</v>
       </c>
@@ -8254,7 +8257,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>321</v>
       </c>
@@ -8271,7 +8274,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>322</v>
       </c>
@@ -8288,7 +8291,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>323</v>
       </c>
@@ -8305,7 +8308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>324</v>
       </c>
@@ -8322,7 +8325,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>325</v>
       </c>
@@ -8339,7 +8342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>326</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>327</v>
       </c>
@@ -8373,7 +8376,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>328</v>
       </c>
@@ -8390,7 +8393,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>329</v>
       </c>
@@ -8407,7 +8410,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>330</v>
       </c>
@@ -8424,7 +8427,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>331</v>
       </c>
@@ -8441,7 +8444,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>332</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>333</v>
       </c>
@@ -8475,7 +8478,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>334</v>
       </c>
@@ -8492,7 +8495,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>335</v>
       </c>
@@ -8509,7 +8512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>336</v>
       </c>
@@ -8526,7 +8529,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>337</v>
       </c>
@@ -8543,7 +8546,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>338</v>
       </c>
@@ -8560,7 +8563,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>339</v>
       </c>
@@ -8577,7 +8580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>340</v>
       </c>
@@ -8594,7 +8597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>341</v>
       </c>
@@ -8611,7 +8614,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>342</v>
       </c>
@@ -8628,7 +8631,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>343</v>
       </c>
@@ -8645,7 +8648,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>344</v>
       </c>
@@ -8662,7 +8665,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>345</v>
       </c>
@@ -8679,7 +8682,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>346</v>
       </c>
@@ -8696,7 +8699,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>347</v>
       </c>
@@ -8713,7 +8716,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>348</v>
       </c>
@@ -8730,7 +8733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>349</v>
       </c>
@@ -8747,7 +8750,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>350</v>
       </c>
@@ -8764,7 +8767,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>351</v>
       </c>
@@ -8781,7 +8784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>352</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>353</v>
       </c>
@@ -8815,7 +8818,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>354</v>
       </c>
@@ -8832,7 +8835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>355</v>
       </c>
@@ -8849,7 +8852,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>356</v>
       </c>
@@ -8866,7 +8869,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>357</v>
       </c>
@@ -8883,7 +8886,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>358</v>
       </c>
@@ -8900,7 +8903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>359</v>
       </c>
@@ -8917,7 +8920,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>360</v>
       </c>
@@ -8934,7 +8937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>361</v>
       </c>
@@ -8951,7 +8954,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>362</v>
       </c>
@@ -8968,7 +8971,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>363</v>
       </c>
@@ -8985,7 +8988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>364</v>
       </c>
@@ -9007,13 +9010,13 @@
         <v>86.685035999999997</v>
       </c>
       <c r="C352" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D352">
         <v>837</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>366</v>
       </c>
@@ -9027,7 +9030,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>367</v>
       </c>
@@ -9041,7 +9044,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>368</v>
       </c>
@@ -9055,7 +9058,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>369</v>
       </c>
@@ -9069,7 +9072,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>370</v>
       </c>
@@ -9083,7 +9086,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>371</v>
       </c>
@@ -9097,7 +9100,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>372</v>
       </c>
@@ -9111,7 +9114,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>373</v>
       </c>
@@ -9133,13 +9136,13 @@
         <v>1.6520220000000001</v>
       </c>
       <c r="C361" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D361">
         <v>431</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>375</v>
       </c>
@@ -9153,7 +9156,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>376</v>
       </c>
@@ -9167,7 +9170,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>377</v>
       </c>
@@ -9181,7 +9184,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>378</v>
       </c>
@@ -9195,7 +9198,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>379</v>
       </c>
@@ -9209,7 +9212,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>380</v>
       </c>
@@ -9223,7 +9226,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>381</v>
       </c>
@@ -9237,7 +9240,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>382</v>
       </c>
@@ -9259,13 +9262,13 @@
         <v>32.220466999999999</v>
       </c>
       <c r="C370" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D370">
         <v>355</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>384</v>
       </c>
@@ -9279,7 +9282,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>385</v>
       </c>
@@ -9293,7 +9296,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>386</v>
       </c>
@@ -9307,7 +9310,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>387</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>388</v>
       </c>
@@ -9335,7 +9338,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>389</v>
       </c>
@@ -9349,7 +9352,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>390</v>
       </c>
@@ -9363,7 +9366,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>391</v>
       </c>
@@ -9377,7 +9380,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>392</v>
       </c>
@@ -9399,13 +9402,13 @@
         <v>9.0416439999999998</v>
       </c>
       <c r="C380" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D380">
         <v>322</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>394</v>
       </c>
@@ -9419,7 +9422,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>395</v>
       </c>
@@ -9433,7 +9436,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>396</v>
       </c>
@@ -9447,7 +9450,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>397</v>
       </c>
@@ -9461,7 +9464,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>398</v>
       </c>
@@ -9475,7 +9478,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>399</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>400</v>
       </c>
@@ -9503,7 +9506,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>401</v>
       </c>
@@ -9517,7 +9520,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>402</v>
       </c>
@@ -9531,7 +9534,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>403</v>
       </c>
@@ -9553,13 +9556,13 @@
         <v>67.805389000000005</v>
       </c>
       <c r="C391" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D391">
         <v>287</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>405</v>
       </c>
@@ -9573,7 +9576,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>406</v>
       </c>
@@ -9587,7 +9590,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>407</v>
       </c>
@@ -9601,7 +9604,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>408</v>
       </c>
@@ -9615,7 +9618,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>409</v>
       </c>
@@ -9629,7 +9632,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>410</v>
       </c>
@@ -9643,7 +9646,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>411</v>
       </c>
@@ -9657,7 +9660,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>412</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>413</v>
       </c>
@@ -9693,13 +9696,13 @@
         <v>287.13226300000002</v>
       </c>
       <c r="C401" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D401">
         <v>267</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>415</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>416</v>
       </c>
@@ -9727,7 +9730,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>417</v>
       </c>
@@ -9741,7 +9744,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>418</v>
       </c>
@@ -9755,7 +9758,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>419</v>
       </c>
@@ -9769,7 +9772,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>420</v>
       </c>
@@ -9783,7 +9786,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>421</v>
       </c>
@@ -9797,7 +9800,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>422</v>
       </c>
@@ -9811,7 +9814,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>423</v>
       </c>
@@ -9825,7 +9828,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>424</v>
       </c>
@@ -9839,7 +9842,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>425</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>426</v>
       </c>
@@ -9867,7 +9870,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>427</v>
       </c>
@@ -9881,7 +9884,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>428</v>
       </c>
@@ -9895,7 +9898,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>429</v>
       </c>
@@ -9909,7 +9912,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>430</v>
       </c>
@@ -9923,7 +9926,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>431</v>
       </c>
@@ -9937,7 +9940,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>432</v>
       </c>
@@ -9951,7 +9954,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>433</v>
       </c>
@@ -9965,7 +9968,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>434</v>
       </c>
@@ -9979,7 +9982,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>435</v>
       </c>
@@ -9993,7 +9996,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>436</v>
       </c>
@@ -10007,7 +10010,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>437</v>
       </c>
@@ -10021,7 +10024,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>438</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>439</v>
       </c>
@@ -10049,7 +10052,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>440</v>
       </c>
@@ -10063,7 +10066,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>441</v>
       </c>
@@ -10077,7 +10080,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>442</v>
       </c>
@@ -10091,7 +10094,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>443</v>
       </c>
@@ -10105,7 +10108,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>444</v>
       </c>
@@ -10119,7 +10122,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>445</v>
       </c>
@@ -10141,13 +10144,13 @@
         <v>77.505898000000002</v>
       </c>
       <c r="C433" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D433">
         <v>203</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>447</v>
       </c>
@@ -10161,7 +10164,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>448</v>
       </c>
@@ -10175,7 +10178,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>449</v>
       </c>
@@ -10189,7 +10192,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>450</v>
       </c>
@@ -10203,7 +10206,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>451</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>452</v>
       </c>
@@ -10231,7 +10234,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>453</v>
       </c>
@@ -10245,7 +10248,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>454</v>
       </c>
@@ -10259,7 +10262,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>455</v>
       </c>
@@ -10273,7 +10276,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>456</v>
       </c>
@@ -10287,7 +10290,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>457</v>
       </c>
@@ -10301,7 +10304,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>458</v>
       </c>
@@ -10315,7 +10318,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>459</v>
       </c>
@@ -10329,7 +10332,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>460</v>
       </c>
@@ -10343,7 +10346,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>461</v>
       </c>
@@ -10357,7 +10360,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>462</v>
       </c>
@@ -10371,7 +10374,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>463</v>
       </c>
@@ -10385,7 +10388,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>464</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>465</v>
       </c>
@@ -10413,7 +10416,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>466</v>
       </c>
@@ -10427,7 +10430,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>467</v>
       </c>
@@ -10441,7 +10444,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>468</v>
       </c>
@@ -10455,7 +10458,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>469</v>
       </c>
@@ -10469,7 +10472,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>470</v>
       </c>
@@ -10483,7 +10486,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>471</v>
       </c>
@@ -10497,7 +10500,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>472</v>
       </c>
@@ -10511,7 +10514,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>473</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>474</v>
       </c>
@@ -10539,7 +10542,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>475</v>
       </c>
@@ -10553,7 +10556,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>476</v>
       </c>
@@ -10567,7 +10570,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>477</v>
       </c>
@@ -10581,7 +10584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>478</v>
       </c>
@@ -10603,13 +10606,13 @@
         <v>31.699005</v>
       </c>
       <c r="C466" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D466">
         <v>155</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>480</v>
       </c>
@@ -10623,7 +10626,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>481</v>
       </c>
@@ -10637,7 +10640,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>482</v>
       </c>
@@ -10651,7 +10654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>483</v>
       </c>
@@ -10665,7 +10668,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>484</v>
       </c>
@@ -10679,7 +10682,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>485</v>
       </c>
@@ -10693,7 +10696,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>486</v>
       </c>
@@ -10707,7 +10710,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>487</v>
       </c>
@@ -10721,7 +10724,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>488</v>
       </c>
@@ -10735,7 +10738,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>489</v>
       </c>
@@ -10749,7 +10752,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>490</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>491</v>
       </c>
@@ -10777,7 +10780,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>492</v>
       </c>
@@ -10791,7 +10794,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>493</v>
       </c>
@@ -10805,7 +10808,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>494</v>
       </c>
@@ -10819,7 +10822,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>495</v>
       </c>
@@ -10833,7 +10836,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>496</v>
       </c>
@@ -10847,7 +10850,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>497</v>
       </c>
@@ -10861,7 +10864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>498</v>
       </c>
@@ -10875,7 +10878,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>499</v>
       </c>
@@ -10889,7 +10892,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>500</v>
       </c>
@@ -10903,7 +10906,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>501</v>
       </c>
@@ -10917,7 +10920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>502</v>
       </c>
@@ -10931,7 +10934,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>503</v>
       </c>
@@ -10945,7 +10948,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>504</v>
       </c>
@@ -10959,7 +10962,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>505</v>
       </c>
@@ -10973,7 +10976,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>506</v>
       </c>
@@ -10987,7 +10990,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>507</v>
       </c>
@@ -11001,7 +11004,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>508</v>
       </c>
@@ -11015,7 +11018,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>509</v>
       </c>
@@ -11029,7 +11032,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>510</v>
       </c>
@@ -11043,7 +11046,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>511</v>
       </c>
@@ -11057,7 +11060,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>512</v>
       </c>
@@ -11071,7 +11074,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>513</v>
       </c>
@@ -11085,7 +11088,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>514</v>
       </c>
@@ -11099,7 +11102,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>515</v>
       </c>
@@ -11113,7 +11116,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>516</v>
       </c>
@@ -11127,7 +11130,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>517</v>
       </c>
@@ -11141,7 +11144,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>518</v>
       </c>
@@ -11155,7 +11158,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>519</v>
       </c>
@@ -11169,7 +11172,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>520</v>
       </c>
@@ -11183,7 +11186,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>521</v>
       </c>
@@ -11197,7 +11200,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>522</v>
       </c>
@@ -11211,7 +11214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>523</v>
       </c>
@@ -11233,13 +11236,13 @@
         <v>0.50614000000000003</v>
       </c>
       <c r="C511" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D511">
         <v>108</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>525</v>
       </c>
@@ -11253,7 +11256,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>526</v>
       </c>
@@ -11267,7 +11270,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>527</v>
       </c>
@@ -11281,7 +11284,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>528</v>
       </c>
@@ -11295,7 +11298,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>529</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>530</v>
       </c>
@@ -11323,7 +11326,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>531</v>
       </c>
@@ -11337,7 +11340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>532</v>
       </c>
@@ -11351,7 +11354,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>533</v>
       </c>
@@ -11365,7 +11368,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>534</v>
       </c>
@@ -11379,7 +11382,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>535</v>
       </c>
@@ -11393,7 +11396,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>536</v>
       </c>
@@ -11407,7 +11410,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>537</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>538</v>
       </c>
@@ -11435,7 +11438,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>539</v>
       </c>
@@ -11449,7 +11452,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>540</v>
       </c>
@@ -11463,7 +11466,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>541</v>
       </c>
@@ -11477,7 +11480,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>542</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>543</v>
       </c>
@@ -11505,7 +11508,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>544</v>
       </c>
@@ -11519,7 +11522,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>545</v>
       </c>
@@ -11533,7 +11536,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>546</v>
       </c>
@@ -11547,7 +11550,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>547</v>
       </c>
@@ -11561,7 +11564,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>548</v>
       </c>
@@ -11575,7 +11578,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>549</v>
       </c>
@@ -11589,7 +11592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>550</v>
       </c>
@@ -11603,7 +11606,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>551</v>
       </c>
@@ -11617,7 +11620,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>552</v>
       </c>
@@ -11631,7 +11634,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>553</v>
       </c>
@@ -11645,7 +11648,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>554</v>
       </c>
@@ -11659,7 +11662,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>555</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>556</v>
       </c>
@@ -11687,7 +11690,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>557</v>
       </c>
@@ -11701,7 +11704,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>558</v>
       </c>
@@ -11715,7 +11718,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>559</v>
       </c>
@@ -11729,7 +11732,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>560</v>
       </c>
@@ -11743,7 +11746,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>561</v>
       </c>
@@ -11757,7 +11760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>562</v>
       </c>
@@ -11771,7 +11774,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>563</v>
       </c>
@@ -11785,7 +11788,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>564</v>
       </c>
@@ -11799,7 +11802,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>565</v>
       </c>
@@ -11813,7 +11816,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>566</v>
       </c>
@@ -11827,7 +11830,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>567</v>
       </c>
@@ -11841,7 +11844,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>568</v>
       </c>
@@ -11855,7 +11858,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>569</v>
       </c>
@@ -11869,7 +11872,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>570</v>
       </c>
@@ -11883,7 +11886,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>571</v>
       </c>
@@ -11897,7 +11900,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>572</v>
       </c>
@@ -11911,7 +11914,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>573</v>
       </c>
@@ -11925,7 +11928,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>574</v>
       </c>
@@ -11939,7 +11942,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>575</v>
       </c>
@@ -11953,7 +11956,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>576</v>
       </c>
@@ -11967,7 +11970,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>577</v>
       </c>
@@ -11981,7 +11984,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>578</v>
       </c>
@@ -11995,7 +11998,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>579</v>
       </c>
@@ -12009,7 +12012,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>580</v>
       </c>
@@ -12023,7 +12026,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>581</v>
       </c>
@@ -12037,7 +12040,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>582</v>
       </c>
@@ -12051,7 +12054,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>583</v>
       </c>
@@ -12065,7 +12068,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>584</v>
       </c>
@@ -12079,7 +12082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>585</v>
       </c>
@@ -12093,7 +12096,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>586</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>587</v>
       </c>
@@ -12121,7 +12124,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>588</v>
       </c>
@@ -12135,7 +12138,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>589</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>590</v>
       </c>
@@ -12163,7 +12166,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>591</v>
       </c>
@@ -12177,7 +12180,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>592</v>
       </c>
@@ -12191,7 +12194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>593</v>
       </c>
@@ -12205,7 +12208,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>594</v>
       </c>
@@ -12219,7 +12222,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>595</v>
       </c>
@@ -12241,13 +12244,13 @@
         <v>58.393326000000002</v>
       </c>
       <c r="C583" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D583">
         <v>48</v>
       </c>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>597</v>
       </c>
@@ -12261,7 +12264,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>598</v>
       </c>
@@ -12275,7 +12278,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>599</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>600</v>
       </c>
@@ -12303,7 +12306,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>601</v>
       </c>
@@ -12317,7 +12320,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>602</v>
       </c>
@@ -12331,7 +12334,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>603</v>
       </c>
@@ -12345,7 +12348,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>604</v>
       </c>
@@ -12359,7 +12362,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>605</v>
       </c>
@@ -12373,7 +12376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>606</v>
       </c>
@@ -12387,7 +12390,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>607</v>
       </c>
@@ -12401,7 +12404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>608</v>
       </c>
@@ -12423,13 +12426,13 @@
         <v>80.145065000000002</v>
       </c>
       <c r="C596" t="s">
-        <v>5</v>
+        <v>717</v>
       </c>
       <c r="D596">
         <v>21</v>
       </c>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>610</v>
       </c>
@@ -12443,7 +12446,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>611</v>
       </c>
@@ -12457,7 +12460,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>612</v>
       </c>
@@ -12471,7 +12474,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>613</v>
       </c>
@@ -12485,7 +12488,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>614</v>
       </c>
@@ -12499,7 +12502,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>615</v>
       </c>
@@ -12513,7 +12516,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>616</v>
       </c>
@@ -12527,7 +12530,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>617</v>
       </c>
@@ -12541,7 +12544,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>618</v>
       </c>
@@ -12555,7 +12558,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>619</v>
       </c>
@@ -12569,7 +12572,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>620</v>
       </c>
@@ -12583,7 +12586,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>621</v>
       </c>
@@ -12597,7 +12600,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>622</v>
       </c>
@@ -12611,7 +12614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>623</v>
       </c>
@@ -12625,7 +12628,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>624</v>
       </c>
@@ -12639,7 +12642,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>625</v>
       </c>
@@ -12653,7 +12656,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>626</v>
       </c>
@@ -12667,7 +12670,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>627</v>
       </c>
@@ -12681,7 +12684,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>628</v>
       </c>
@@ -12695,7 +12698,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>629</v>
       </c>
@@ -12709,7 +12712,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>630</v>
       </c>
@@ -12723,7 +12726,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>631</v>
       </c>
@@ -12737,7 +12740,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>632</v>
       </c>
@@ -12751,7 +12754,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>633</v>
       </c>
@@ -12765,7 +12768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>634</v>
       </c>
@@ -12779,7 +12782,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>635</v>
       </c>
@@ -12793,7 +12796,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>636</v>
       </c>
@@ -12807,7 +12810,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>637</v>
       </c>
@@ -12821,7 +12824,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>638</v>
       </c>
@@ -12835,7 +12838,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>639</v>
       </c>
@@ -12849,7 +12852,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>640</v>
       </c>
@@ -12863,7 +12866,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>641</v>
       </c>
@@ -12877,7 +12880,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>642</v>
       </c>
@@ -12891,7 +12894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>643</v>
       </c>
@@ -12905,7 +12908,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>644</v>
       </c>
@@ -12919,7 +12922,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>645</v>
       </c>
@@ -12933,7 +12936,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>646</v>
       </c>
@@ -12947,7 +12950,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>647</v>
       </c>
@@ -12961,7 +12964,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>648</v>
       </c>
@@ -12975,7 +12978,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>649</v>
       </c>
@@ -12989,7 +12992,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>650</v>
       </c>
@@ -13003,7 +13006,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>651</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>652</v>
       </c>
@@ -13031,7 +13034,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>653</v>
       </c>
@@ -13045,7 +13048,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>654</v>
       </c>
@@ -13059,7 +13062,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>655</v>
       </c>
@@ -13073,7 +13076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>656</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>657</v>
       </c>
@@ -13101,7 +13104,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>658</v>
       </c>
@@ -13115,7 +13118,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>659</v>
       </c>
@@ -13129,7 +13132,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>660</v>
       </c>
@@ -13143,7 +13146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>661</v>
       </c>
@@ -13157,7 +13160,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>662</v>
       </c>
@@ -13171,7 +13174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>663</v>
       </c>
@@ -13185,7 +13188,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>664</v>
       </c>
@@ -13199,7 +13202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>665</v>
       </c>
@@ -13213,7 +13216,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>666</v>
       </c>
@@ -13227,7 +13230,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>667</v>
       </c>
@@ -13241,7 +13244,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>668</v>
       </c>
@@ -13255,7 +13258,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>669</v>
       </c>
@@ -13269,7 +13272,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>670</v>
       </c>
@@ -13283,7 +13286,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>671</v>
       </c>
@@ -13297,7 +13300,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>672</v>
       </c>
@@ -13311,7 +13314,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>673</v>
       </c>
@@ -13325,7 +13328,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>674</v>
       </c>
@@ -13339,7 +13342,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>675</v>
       </c>
@@ -13353,7 +13356,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>676</v>
       </c>
@@ -13367,7 +13370,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>677</v>
       </c>
@@ -13381,7 +13384,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>678</v>
       </c>
@@ -13395,7 +13398,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>679</v>
       </c>
@@ -13409,7 +13412,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>680</v>
       </c>
@@ -13423,7 +13426,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>681</v>
       </c>
@@ -13437,7 +13440,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>682</v>
       </c>
@@ -13451,7 +13454,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>683</v>
       </c>
@@ -13465,7 +13468,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>684</v>
       </c>
@@ -13479,7 +13482,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>685</v>
       </c>
@@ -13493,7 +13496,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>686</v>
       </c>
@@ -13507,7 +13510,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>687</v>
       </c>
@@ -13521,7 +13524,7 @@
         <v>41143</v>
       </c>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>688</v>
       </c>
@@ -13535,7 +13538,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>689</v>
       </c>
@@ -13549,7 +13552,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>690</v>
       </c>
@@ -13563,7 +13566,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>691</v>
       </c>
@@ -13577,7 +13580,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>692</v>
       </c>
@@ -13591,7 +13594,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>693</v>
       </c>
@@ -13605,7 +13608,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>694</v>
       </c>
@@ -13619,7 +13622,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>695</v>
       </c>
@@ -13633,7 +13636,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>696</v>
       </c>
@@ -13647,7 +13650,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>697</v>
       </c>
@@ -13661,7 +13664,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>698</v>
       </c>
@@ -13675,7 +13678,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>699</v>
       </c>
@@ -13689,7 +13692,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>700</v>
       </c>
@@ -13703,7 +13706,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>701</v>
       </c>
@@ -13717,7 +13720,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>702</v>
       </c>
@@ -13731,7 +13734,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>703</v>
       </c>
@@ -13745,7 +13748,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>704</v>
       </c>
@@ -13759,7 +13762,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>705</v>
       </c>
@@ -13773,7 +13776,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>706</v>
       </c>
@@ -13787,7 +13790,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>707</v>
       </c>
@@ -13801,7 +13804,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>708</v>
       </c>
@@ -13815,7 +13818,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>709</v>
       </c>
@@ -13829,7 +13832,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>710</v>
       </c>
@@ -13843,7 +13846,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>711</v>
       </c>
@@ -13857,7 +13860,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>712</v>
       </c>
@@ -13871,7 +13874,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>713</v>
       </c>
@@ -13885,7 +13888,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>714</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>715</v>
       </c>
@@ -13913,7 +13916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>716</v>
       </c>
@@ -13927,7 +13930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>9</v>
       </c>
@@ -13944,7 +13947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>10</v>
       </c>
@@ -13961,7 +13964,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>11</v>
       </c>
@@ -13978,7 +13981,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>12</v>
       </c>
@@ -13996,7 +13999,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E707" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E707">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="cafe"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>